--- a/移动警务通管理平台功能列表－包头.xlsx
+++ b/移动警务通管理平台功能列表－包头.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="70">
   <si>
     <t>模块名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -211,14 +211,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>执法仪使用、未使用、维修等情况统计分析，统计在某段时间内未使用的执法记录仪,支持excel报表导出。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>执法统计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>考核统计</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -227,94 +219,83 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>统计分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>考核统计统计各大队的文件总数、处理文件数量、未处理文件数量等信息。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>异常数据统计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对各单位超时导入、超时维护数据进行统计；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统要分区域，分级，‘一人一档’分权管理，同时也是系统登陆用户，每个用户只能看到权限范围内的数据。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重要视音频等文件可根据系统设置自动上传到中心服务器永久保存。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ws_base</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统日志查询,为了安全，重要操作（下载、播放数据等）各功能页面一定要记日志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调阅管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调阅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中队、大队调阅、下载同级单位数据时，须经上一级用户审批，其他警种、单位调阅、下载数据时，须经交管局审批。权限分配支持跨单位调阅数据多级审核机制。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>???????</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执法记录数；预警机制，对不符合规定的执勤数据进行预警。工作站离线预警。对违规使用的进行预警提醒，对未按规定正常工作的设备、人员进行预警等功能。维护超时、比对失败、违规数据、数据超时上传、离线等预警功能。调阅待审批单。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>警员登陆系统可修改自己的登陆密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pe_video_list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执法仪使用、未使用、维修等情况统计分析，统计在某段时间内未使用的执法记录仪,支持excel报表导出。执法统计统计各大队的总使用次数、平均使用次数、活跃度等信息。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>???</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>统计分析</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>考核统计统计各大队的文件总数、处理文件数量、未处理文件数量等信息。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>执法统计统计各大队的总使用次数、平均使用次数、活跃度等信息。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>异常数据统计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对各单位超时导入、超时维护数据进行统计；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>权限管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统要分区域，分级，‘一人一档’分权管理，同时也是系统登陆用户，每个用户只能看到权限范围内的数据。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重要视音频等文件可根据系统设置自动上传到中心服务器永久保存。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ws_base</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统日志查询,为了安全，重要操作（下载、播放数据等）各功能页面一定要记日志</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>调阅管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>调阅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中队、大队调阅、下载同级单位数据时，须经上一级用户审批，其他警种、单位调阅、下载数据时，须经交管局审批。权限分配支持跨单位调阅数据多级审核机制。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>???????</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>执法记录数；预警机制，对不符合规定的执勤数据进行预警。工作站离线预警。对违规使用的进行预警提醒，对未按规定正常工作的设备、人员进行预警等功能。维护超时、比对失败、违规数据、数据超时上传、离线等预警功能。调阅待审批单。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>警员登陆系统可修改自己的登陆密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>执法仪状态</t>
-  </si>
-  <si>
-    <t>执法仪状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pe_video_list</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据pe_video_list统计</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -406,7 +387,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -480,6 +461,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -514,6 +496,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -689,23 +672,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.375" customWidth="1"/>
-    <col min="2" max="2" width="14.25" style="5" customWidth="1"/>
-    <col min="3" max="3" width="79.125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="20.375" customWidth="1"/>
+    <col min="1" max="1" width="17.33203125" customWidth="1"/>
+    <col min="2" max="2" width="14.21875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="79.109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="3" customFormat="1">
+    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -716,7 +699,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>3</v>
       </c>
@@ -730,16 +713,16 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
       <c r="B3" s="5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
       <c r="B4" s="5" t="s">
         <v>5</v>
@@ -751,19 +734,19 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="27">
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
       <c r="B6" s="5" t="s">
         <v>7</v>
@@ -772,16 +755,16 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>15</v>
       </c>
@@ -789,13 +772,13 @@
         <v>12</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="B9" s="5" t="s">
         <v>13</v>
@@ -804,7 +787,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
       <c r="B10" s="5" t="s">
         <v>14</v>
@@ -813,7 +796,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>48</v>
       </c>
@@ -824,199 +807,178 @@
         <v>46</v>
       </c>
       <c r="D11" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="5" t="s">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="D12" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="7"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>52</v>
+      </c>
       <c r="B13" s="5" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D13" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="27">
-      <c r="A14" s="7" t="s">
-        <v>55</v>
-      </c>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A14" s="7"/>
       <c r="B14" s="5" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="27">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="B15" s="5" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
       <c r="B16" s="5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="7"/>
+        <v>51</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="B18" s="5" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>43</v>
+      </c>
+      <c r="D18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
       <c r="B19" s="5" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D19" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="40.5">
-      <c r="A20" s="7" t="s">
-        <v>42</v>
-      </c>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A20" s="7"/>
       <c r="B20" s="5" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D20" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="7"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="B21" s="5" t="s">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="7"/>
-      <c r="B22" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="27">
-      <c r="A23" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+    </row>
+    <row r="23" spans="1:4" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B23" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="1"/>
-    </row>
-    <row r="25" spans="1:4" ht="40.5">
-      <c r="A25" t="s">
-        <v>18</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+    </row>
+    <row r="28" spans="1:4" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>27</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D30" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D31" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D32" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="27">
-      <c r="A33" t="s">
-        <v>40</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" t="s">
-        <v>44</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A14:A19"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1025,12 +987,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1038,12 +1000,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
